--- a/GameGuides/100% Marvel Rivals Guide.xlsx
+++ b/GameGuides/100% Marvel Rivals Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84363eb9df856229/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045FE663-0B36-4930-9539-54477A82B574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_FCFC2C790DD8179ABEF05936D22528E350CBE08C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192191EA-05CE-4359-8499-004EC23182E6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="417">
   <si>
     <t>Achievement Name</t>
   </si>
@@ -64,6 +64,21 @@
     <t>Fun</t>
   </si>
   <si>
+    <t>Asgardians of the Galaxy</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Land 1 KO with an assist from Loki</t>
+  </si>
+  <si>
+    <t>Hand of Heven</t>
+  </si>
+  <si>
+    <t>Snare 4 enemies with a single use of Heven's Retribution</t>
+  </si>
+  <si>
     <t>Clash of Kings</t>
   </si>
   <si>
@@ -94,6 +109,21 @@
     <t>Partner with Winter Soldier to land 1 KO</t>
   </si>
   <si>
+    <t>Creatures of the Knight</t>
+  </si>
+  <si>
+    <t>Blade</t>
+  </si>
+  <si>
+    <t>Partner with Moon Knight to land 1 KO</t>
+  </si>
+  <si>
+    <t>Old Haunts</t>
+  </si>
+  <si>
+    <t>As Blade, land a 3-player KO streak in Empire of Eternal Night: Central Park</t>
+  </si>
+  <si>
     <t>Justice for All!</t>
   </si>
   <si>
@@ -139,18 +169,54 @@
     <t>Win a game as defender on Tokyo 2099: Spider-Islands</t>
   </si>
   <si>
+    <t>Blazing Rebirth</t>
+  </si>
+  <si>
+    <t>Hatch the Phoenix Egg in Klyntar: Celestial Husk</t>
+  </si>
+  <si>
+    <t>Blueprints Supreme</t>
+  </si>
+  <si>
+    <t>Use 1 emote in front of the Palace of the Dragon King in K'un-Lun: Heart of Heaven</t>
+  </si>
+  <si>
     <t>Call of the Hive</t>
   </si>
   <si>
     <t>Capture the Eldritch Monument point on Hydra Charteris Base: Hell's Heaven</t>
   </si>
   <si>
+    <t>Can't Make an Omlette...</t>
+  </si>
+  <si>
+    <t>Destroy 30 Symbiote Eggs in Klyntar: Throne of Knull</t>
+  </si>
+  <si>
+    <t>Celestial Pathway</t>
+  </si>
+  <si>
+    <t>Gain control of the Celestial Codex in Klyntar: Celestial Husk</t>
+  </si>
+  <si>
+    <t>Crouching Threat, Hidden Dragon</t>
+  </si>
+  <si>
+    <t>Stop the awakening of Shou-Lao in K'un: Heart of Heaven</t>
+  </si>
+  <si>
     <t>Cut off One Head</t>
   </si>
   <si>
     <t>Win a game on Hydra Charteris Base: Hell's Heaven</t>
   </si>
   <si>
+    <t>Darkness and Light</t>
+  </si>
+  <si>
+    <t>Obliterate Knull in the White Hot Room in Klyntar: Throne of Knull</t>
+  </si>
+  <si>
     <t>Days of Future Past</t>
   </si>
   <si>
@@ -175,6 +241,12 @@
     <t>Go through 2 different portals in a single game of Doom Match</t>
   </si>
   <si>
+    <t>Echoes of the Abyss</t>
+  </si>
+  <si>
+    <t>Listen to All-Black's voice in Klyntar: Celestial Husk</t>
+  </si>
+  <si>
     <t>Enter the Hydra</t>
   </si>
   <si>
@@ -205,6 +277,18 @@
     <t>Win a game as defender on Yggsgard: Yggdrasill Path</t>
   </si>
   <si>
+    <t>From the Abyss</t>
+  </si>
+  <si>
+    <t>Witness Knull break free and reclaim the All-Black in Klyntar: Celestial Husk</t>
+  </si>
+  <si>
+    <t>Full Heart, Can't Lose</t>
+  </si>
+  <si>
+    <t>Gain control of the Celestial Vault in KlyntarL Celestial Husk</t>
+  </si>
+  <si>
     <t>Halfway Dropout</t>
   </si>
   <si>
@@ -229,12 +313,24 @@
     <t>Win a game as attacker on Yggsgard: Yggdrasill Path</t>
   </si>
   <si>
+    <t>Kings in Black</t>
+  </si>
+  <si>
+    <t>Witness the Showdown between Venom and Knull in Klyntar: Throne of Knull</t>
+  </si>
+  <si>
     <t>Knowledge of Sin</t>
   </si>
   <si>
     <t>On Intergalactic Empire of Wakanda: Birnin T'Challa destroy the large crystal-containing pillar located in the center of the capture point at Imperial Institute of Science</t>
   </si>
   <si>
+    <t>Leap of Faith</t>
+  </si>
+  <si>
+    <t>Use The Tablet of Iron Fist to awaken Shou-Lao in K'un-Lun: Heart of Heaven</t>
+  </si>
+  <si>
     <t>Let Her Speak</t>
   </si>
   <si>
@@ -289,6 +385,12 @@
     <t>Win a game as defender on Empire of Eternal Night: Midtown</t>
   </si>
   <si>
+    <t>Prank of Monkey King</t>
+  </si>
+  <si>
+    <t>Smash 10 Fruit if Immortality at the Jade Pond banquet in K'un-Lun: Heart of Heaven</t>
+  </si>
+  <si>
     <t>Public Relations</t>
   </si>
   <si>
@@ -319,6 +421,12 @@
     <t>Capture the Imperial Institute of Science point on Intergalactic Empire of Wakanda: Birnin T'Challa</t>
   </si>
   <si>
+    <t>Severed Outpost</t>
+  </si>
+  <si>
+    <t>Gain control of the Celestial Hand in Klyntar: Celestial Husk</t>
+  </si>
+  <si>
     <t>Shero of Wkanda</t>
   </si>
   <si>
@@ -409,6 +517,12 @@
     <t>Shatter 1 robot on Robot Wailing Wall in Arakko. On Defending Team take a right after spawn to find a tunnel-like area with robots on the wall</t>
   </si>
   <si>
+    <t>Whispers of Oblivion</t>
+  </si>
+  <si>
+    <t>Listen to Knull in Klyntar: Throne of Knull</t>
+  </si>
+  <si>
     <t>Wide Open</t>
   </si>
   <si>
@@ -430,6 +544,21 @@
     <t>Assist allies in achieving a team wipe</t>
   </si>
   <si>
+    <t>Devil Meets Dragon</t>
+  </si>
+  <si>
+    <t>Daredevil</t>
+  </si>
+  <si>
+    <t>Take down an enemy Iron Fist</t>
+  </si>
+  <si>
+    <t>The Defenders</t>
+  </si>
+  <si>
+    <t>Partner with Marvel Knights members to land 10 KOs</t>
+  </si>
+  <si>
     <t>Inner Strength</t>
   </si>
   <si>
@@ -502,6 +631,12 @@
     <t>Read all 4 of the Fantastic Four's hero stories</t>
   </si>
   <si>
+    <t>HEART OF THE DRAGON</t>
+  </si>
+  <si>
+    <t>Unlock all Heart of the Dragon gallery cards</t>
+  </si>
+  <si>
     <t>Hellfire Gala</t>
   </si>
   <si>
@@ -562,6 +697,12 @@
     <t>Log in 30 times</t>
   </si>
   <si>
+    <t>The Abyss Awakens</t>
+  </si>
+  <si>
+    <t>Unlock all Abyss Awakens gallery cards</t>
+  </si>
+  <si>
     <t>Ultimate Mastery</t>
   </si>
   <si>
@@ -842,6 +983,21 @@
   </si>
   <si>
     <t>Blast 3 enemies with a single use of Arachno-Mine</t>
+  </si>
+  <si>
+    <t>Godly Revenge</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Take down an enemy Hela</t>
+  </si>
+  <si>
+    <t>Wish Upon a Phoenix</t>
+  </si>
+  <si>
+    <t>Strike down 4 enemies with a single Endsong Inferno landing</t>
   </si>
   <si>
     <t>Jian and Katana</t>
@@ -1162,13 +1318,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1413,19 +1572,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AB1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
-    <col min="4" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="91.77734375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15.44140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
@@ -1486,7 +1646,7 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="b">
+      <c r="F2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
@@ -1528,7 +1688,7 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="b">
+      <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
@@ -1570,7 +1730,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="b">
+      <c r="F4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
@@ -1596,7 +1756,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +1772,7 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="b">
+      <c r="F5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
@@ -1652,9 +1812,9 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="2"/>
@@ -1694,9 +1854,9 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="2"/>
@@ -1738,7 +1898,7 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="b">
+      <c r="F8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
@@ -1772,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1780,7 +1940,7 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="b">
+      <c r="F9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
@@ -1806,15 +1966,15 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1822,7 +1982,7 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="b">
+      <c r="F10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
@@ -1848,23 +2008,23 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
@@ -1892,21 +2052,21 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="2"/>
@@ -1934,13 +2094,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1948,7 +2108,7 @@
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="b">
+      <c r="F13" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="2"/>
@@ -1976,13 +2136,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -1990,7 +2150,7 @@
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="b">
+      <c r="F14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="2"/>
@@ -2016,15 +2176,15 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -2032,7 +2192,7 @@
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="b">
+      <c r="F15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="2"/>
@@ -2060,13 +2220,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2074,7 +2234,7 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="b">
+      <c r="F16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="2"/>
@@ -2102,13 +2262,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -2116,7 +2276,7 @@
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="b">
+      <c r="F17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
@@ -2142,15 +2302,15 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -2158,7 +2318,7 @@
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="b">
+      <c r="F18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="2"/>
@@ -2186,13 +2346,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -2200,7 +2360,7 @@
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3" t="b">
+      <c r="F19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G19" s="2"/>
@@ -2228,13 +2388,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -2242,7 +2402,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="b">
+      <c r="F20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
@@ -2268,15 +2428,15 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -2284,7 +2444,7 @@
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3" t="b">
+      <c r="F21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
@@ -2312,13 +2472,13 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -2326,7 +2486,7 @@
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="3" t="b">
+      <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
@@ -2352,15 +2512,15 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2368,7 +2528,7 @@
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="b">
+      <c r="F23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
@@ -2396,13 +2556,13 @@
     </row>
     <row r="24" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -2410,7 +2570,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3" t="b">
+      <c r="F24" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
@@ -2438,13 +2598,13 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -2452,7 +2612,7 @@
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="b">
+      <c r="F25" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="2"/>
@@ -2480,13 +2640,13 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -2494,7 +2654,7 @@
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="b">
+      <c r="F26" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="2"/>
@@ -2522,13 +2682,13 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2536,7 +2696,7 @@
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3" t="b">
+      <c r="F27" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
@@ -2562,15 +2722,15 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2578,7 +2738,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3" t="b">
+      <c r="F28" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G28" s="2"/>
@@ -2606,13 +2766,13 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -2620,7 +2780,7 @@
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3" t="b">
+      <c r="F29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="2"/>
@@ -2646,15 +2806,15 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -2662,7 +2822,7 @@
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3" t="b">
+      <c r="F30" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G30" s="2"/>
@@ -2688,15 +2848,15 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -2704,7 +2864,7 @@
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3" t="b">
+      <c r="F31" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
@@ -2730,15 +2890,15 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -2746,7 +2906,7 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3" t="b">
+      <c r="F32" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
@@ -2772,15 +2932,15 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2788,7 +2948,7 @@
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="b">
+      <c r="F33" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="2"/>
@@ -2814,15 +2974,15 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -2830,7 +2990,7 @@
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="3" t="b">
+      <c r="F34" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="2"/>
@@ -2858,13 +3018,13 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -2872,7 +3032,7 @@
       <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="b">
+      <c r="F35" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G35" s="2"/>
@@ -2900,13 +3060,13 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2914,7 +3074,7 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3" t="b">
+      <c r="F36" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G36" s="2"/>
@@ -2940,15 +3100,15 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -2956,7 +3116,7 @@
       <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="3" t="b">
+      <c r="F37" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="2"/>
@@ -2982,15 +3142,15 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -2998,7 +3158,7 @@
       <c r="E38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3" t="b">
+      <c r="F38" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="2"/>
@@ -3026,13 +3186,13 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -3040,7 +3200,7 @@
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="3" t="b">
+      <c r="F39" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="2"/>
@@ -3066,15 +3226,15 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -3082,7 +3242,7 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3" t="b">
+      <c r="F40" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="2"/>
@@ -3108,15 +3268,15 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -3124,7 +3284,7 @@
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="b">
+      <c r="F41" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="2"/>
@@ -3152,13 +3312,13 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -3166,7 +3326,7 @@
       <c r="E42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="3" t="b">
+      <c r="F42" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G42" s="2"/>
@@ -3192,15 +3352,15 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -3208,7 +3368,7 @@
       <c r="E43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="3" t="b">
+      <c r="F43" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="2"/>
@@ -3236,13 +3396,13 @@
     </row>
     <row r="44" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -3250,7 +3410,7 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3" t="b">
+      <c r="F44" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G44" s="2"/>
@@ -3276,15 +3436,15 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
@@ -3292,7 +3452,7 @@
       <c r="E45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="3" t="b">
+      <c r="F45" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G45" s="2"/>
@@ -3320,13 +3480,13 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -3334,7 +3494,7 @@
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="3" t="b">
+      <c r="F46" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G46" s="2"/>
@@ -3360,15 +3520,15 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -3376,7 +3536,7 @@
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3" t="b">
+      <c r="F47" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G47" s="2"/>
@@ -3404,13 +3564,13 @@
     </row>
     <row r="48" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -3418,7 +3578,7 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="3" t="b">
+      <c r="F48" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G48" s="2"/>
@@ -3446,13 +3606,13 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
@@ -3460,7 +3620,7 @@
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="3" t="b">
+      <c r="F49" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G49" s="2"/>
@@ -3486,15 +3646,15 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>9</v>
@@ -3502,7 +3662,7 @@
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="3" t="b">
+      <c r="F50" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G50" s="2"/>
@@ -3528,15 +3688,15 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -3544,7 +3704,7 @@
       <c r="E51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="3" t="b">
+      <c r="F51" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G51" s="2"/>
@@ -3570,15 +3730,15 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
@@ -3586,7 +3746,7 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="3" t="b">
+      <c r="F52" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="2"/>
@@ -3614,13 +3774,13 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -3628,7 +3788,7 @@
       <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="3" t="b">
+      <c r="F53" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G53" s="2"/>
@@ -3654,15 +3814,15 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
@@ -3670,7 +3830,7 @@
       <c r="E54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="3" t="b">
+      <c r="F54" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G54" s="2"/>
@@ -3696,15 +3856,15 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
@@ -3712,7 +3872,7 @@
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="3" t="b">
+      <c r="F55" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G55" s="2"/>
@@ -3738,15 +3898,15 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -3754,7 +3914,7 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="3" t="b">
+      <c r="F56" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G56" s="2"/>
@@ -3780,15 +3940,15 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -3796,7 +3956,7 @@
       <c r="E57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="3" t="b">
+      <c r="F57" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G57" s="2"/>
@@ -3822,15 +3982,15 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
@@ -3838,7 +3998,7 @@
       <c r="E58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="3" t="b">
+      <c r="F58" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G58" s="2"/>
@@ -3864,15 +4024,15 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -3880,7 +4040,7 @@
       <c r="E59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="3" t="b">
+      <c r="F59" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G59" s="2"/>
@@ -3906,15 +4066,15 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
@@ -3922,7 +4082,7 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="3" t="b">
+      <c r="F60" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
@@ -3950,13 +4110,13 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -3964,7 +4124,7 @@
       <c r="E61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="3" t="b">
+      <c r="F61" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G61" s="2"/>
@@ -3992,21 +4152,21 @@
     </row>
     <row r="62" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G62" s="2"/>
@@ -4034,10 +4194,10 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>138</v>
@@ -4048,7 +4208,7 @@
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="3" t="b">
+      <c r="F63" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G63" s="2"/>
@@ -4079,7 +4239,7 @@
         <v>139</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>140</v>
@@ -4088,9 +4248,9 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F64" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="2"/>
@@ -4121,10 +4281,10 @@
         <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>9</v>
@@ -4132,7 +4292,7 @@
       <c r="E65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="3" t="b">
+      <c r="F65" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G65" s="2"/>
@@ -4160,13 +4320,13 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -4174,7 +4334,7 @@
       <c r="E66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="3" t="b">
+      <c r="F66" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="2"/>
@@ -4202,13 +4362,13 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
@@ -4216,7 +4376,7 @@
       <c r="E67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="3" t="b">
+      <c r="F67" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="2"/>
@@ -4244,13 +4404,13 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
@@ -4258,7 +4418,7 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="3" t="b">
+      <c r="F68" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G68" s="2"/>
@@ -4284,23 +4444,23 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="3" t="b">
+      <c r="F69" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G69" s="2"/>
@@ -4328,21 +4488,21 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="3" t="b">
+      <c r="F70" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G70" s="2"/>
@@ -4368,15 +4528,15 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>9</v>
@@ -4384,7 +4544,7 @@
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="3" t="b">
+      <c r="F71" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G71" s="2"/>
@@ -4412,13 +4572,13 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>9</v>
@@ -4426,7 +4586,7 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="3" t="b">
+      <c r="F72" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G72" s="2"/>
@@ -4452,23 +4612,23 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="3" t="b">
+      <c r="F73" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G73" s="2"/>
@@ -4496,13 +4656,13 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -4510,7 +4670,7 @@
       <c r="E74" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="3" t="b">
+      <c r="F74" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="2"/>
@@ -4538,13 +4698,13 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
@@ -4552,7 +4712,7 @@
       <c r="E75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="3" t="b">
+      <c r="F75" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="2"/>
@@ -4578,15 +4738,15 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
@@ -4594,7 +4754,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="3" t="b">
+      <c r="F76" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="2"/>
@@ -4622,13 +4782,13 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>9</v>
@@ -4636,7 +4796,7 @@
       <c r="E77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="3" t="b">
+      <c r="F77" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="2"/>
@@ -4662,15 +4822,15 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>9</v>
@@ -4678,7 +4838,7 @@
       <c r="E78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="3" t="b">
+      <c r="F78" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="2"/>
@@ -4706,13 +4866,13 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>9</v>
@@ -4720,7 +4880,7 @@
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="3" t="b">
+      <c r="F79" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G79" s="2"/>
@@ -4748,13 +4908,13 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>9</v>
@@ -4762,7 +4922,7 @@
       <c r="E80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="3" t="b">
+      <c r="F80" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G80" s="2"/>
@@ -4790,13 +4950,13 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>9</v>
@@ -4804,7 +4964,7 @@
       <c r="E81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="3" t="b">
+      <c r="F81" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G81" s="2"/>
@@ -4832,13 +4992,13 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>9</v>
@@ -4846,7 +5006,7 @@
       <c r="E82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="3" t="b">
+      <c r="F82" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G82" s="2"/>
@@ -4874,10 +5034,10 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>181</v>
@@ -4888,7 +5048,7 @@
       <c r="E83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="3" t="b">
+      <c r="F83" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G83" s="2"/>
@@ -4919,7 +5079,7 @@
         <v>182</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>183</v>
@@ -4928,9 +5088,9 @@
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F84" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G84" s="2"/>
@@ -4961,10 +5121,10 @@
         <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>9</v>
@@ -4972,7 +5132,7 @@
       <c r="E85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="3" t="b">
+      <c r="F85" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G85" s="2"/>
@@ -5000,21 +5160,21 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G86" s="2"/>
@@ -5042,13 +5202,13 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>9</v>
@@ -5056,7 +5216,7 @@
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="3" t="b">
+      <c r="F87" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G87" s="2"/>
@@ -5084,21 +5244,21 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F88" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G88" s="2"/>
@@ -5126,21 +5286,21 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="3" t="b">
+      <c r="F89" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G89" s="2"/>
@@ -5168,21 +5328,21 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F90" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G90" s="2"/>
@@ -5210,10 +5370,10 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>200</v>
@@ -5224,7 +5384,7 @@
       <c r="E91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="3" t="b">
+      <c r="F91" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G91" s="2"/>
@@ -5255,7 +5415,7 @@
         <v>201</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>202</v>
@@ -5264,9 +5424,9 @@
         <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G92" s="2"/>
@@ -5292,23 +5452,23 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="3" t="b">
+      <c r="F93" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G93" s="2"/>
@@ -5334,23 +5494,23 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F94" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G94" s="2"/>
@@ -5378,13 +5538,13 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>9</v>
@@ -5392,7 +5552,7 @@
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="3" t="b">
+      <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G95" s="2"/>
@@ -5420,13 +5580,13 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>9</v>
@@ -5434,7 +5594,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="3" t="b">
+      <c r="F96" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G96" s="2"/>
@@ -5462,13 +5622,13 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>9</v>
@@ -5476,7 +5636,7 @@
       <c r="E97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="3" t="b">
+      <c r="F97" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G97" s="2"/>
@@ -5504,13 +5664,13 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>9</v>
@@ -5518,7 +5678,7 @@
       <c r="E98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="3" t="b">
+      <c r="F98" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G98" s="2"/>
@@ -5546,21 +5706,21 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F99" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G99" s="2"/>
@@ -5588,13 +5748,13 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>9</v>
@@ -5602,7 +5762,7 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="3" t="b">
+      <c r="F100" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G100" s="2"/>
@@ -5630,21 +5790,21 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F101" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G101" s="2"/>
@@ -5672,21 +5832,21 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F102" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G102" s="2"/>
@@ -5714,21 +5874,21 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G103" s="2"/>
@@ -5754,23 +5914,23 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="3" t="b">
+      <c r="F104" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G104" s="2"/>
@@ -5798,13 +5958,13 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>9</v>
@@ -5812,7 +5972,7 @@
       <c r="E105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="3" t="b">
+      <c r="F105" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G105" s="2"/>
@@ -5840,21 +6000,21 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F106" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G106" s="2"/>
@@ -5882,13 +6042,13 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>9</v>
@@ -5896,7 +6056,7 @@
       <c r="E107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="3" t="b">
+      <c r="F107" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G107" s="2"/>
@@ -5924,13 +6084,13 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>9</v>
@@ -5938,7 +6098,7 @@
       <c r="E108" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="3" t="b">
+      <c r="F108" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G108" s="2"/>
@@ -5966,21 +6126,21 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F109" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G109" s="2"/>
@@ -6008,21 +6168,21 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F110" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G110" s="2"/>
@@ -6050,21 +6210,21 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F111" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G111" s="2"/>
@@ -6092,21 +6252,21 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F112" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G112" s="2"/>
@@ -6134,13 +6294,13 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>9</v>
@@ -6148,7 +6308,7 @@
       <c r="E113" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="3" t="b">
+      <c r="F113" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G113" s="2"/>
@@ -6176,13 +6336,13 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>9</v>
@@ -6190,7 +6350,7 @@
       <c r="E114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="3" t="b">
+      <c r="F114" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G114" s="2"/>
@@ -6216,15 +6376,15 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>9</v>
@@ -6232,7 +6392,7 @@
       <c r="E115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="3" t="b">
+      <c r="F115" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G115" s="2"/>
@@ -6258,23 +6418,23 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F116" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G116" s="2"/>
@@ -6302,13 +6462,13 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>9</v>
@@ -6316,7 +6476,7 @@
       <c r="E117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="3" t="b">
+      <c r="F117" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G117" s="2"/>
@@ -6344,21 +6504,21 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F118" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G118" s="2"/>
@@ -6386,21 +6546,21 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F119" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G119" s="2"/>
@@ -6428,13 +6588,13 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>9</v>
@@ -6442,7 +6602,7 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="3" t="b">
+      <c r="F120" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G120" s="2"/>
@@ -6470,21 +6630,21 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F121" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G121" s="2"/>
@@ -6512,21 +6672,21 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F122" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G122" s="2"/>
@@ -6554,13 +6714,13 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>9</v>
@@ -6568,7 +6728,7 @@
       <c r="E123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="3" t="b">
+      <c r="F123" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G123" s="2"/>
@@ -6596,13 +6756,13 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>9</v>
@@ -6610,7 +6770,7 @@
       <c r="E124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="3" t="b">
+      <c r="F124" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G124" s="2"/>
@@ -6638,13 +6798,13 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>9</v>
@@ -6652,7 +6812,7 @@
       <c r="E125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="3" t="b">
+      <c r="F125" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G125" s="2"/>
@@ -6680,13 +6840,13 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>9</v>
@@ -6694,7 +6854,7 @@
       <c r="E126" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="3" t="b">
+      <c r="F126" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G126" s="2"/>
@@ -6722,13 +6882,13 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>9</v>
@@ -6736,7 +6896,7 @@
       <c r="E127" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="3" t="b">
+      <c r="F127" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G127" s="2"/>
@@ -6764,13 +6924,13 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>9</v>
@@ -6778,7 +6938,7 @@
       <c r="E128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="3" t="b">
+      <c r="F128" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G128" s="2"/>
@@ -6806,13 +6966,13 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>9</v>
@@ -6820,7 +6980,7 @@
       <c r="E129" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F129" s="3" t="b">
+      <c r="F129" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G129" s="2"/>
@@ -6848,21 +7008,21 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F130" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G130" s="2"/>
@@ -6890,13 +7050,13 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>9</v>
@@ -6904,7 +7064,7 @@
       <c r="E131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="3" t="b">
+      <c r="F131" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G131" s="2"/>
@@ -6932,21 +7092,21 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F132" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G132" s="2"/>
@@ -6974,21 +7134,21 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G133" s="2"/>
@@ -7016,21 +7176,21 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F134" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G134" s="2"/>
@@ -7058,13 +7218,13 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>9</v>
@@ -7072,7 +7232,7 @@
       <c r="E135" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F135" s="3" t="b">
+      <c r="F135" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G135" s="2"/>
@@ -7100,21 +7260,21 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F136" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G136" s="2"/>
@@ -7142,21 +7302,21 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F137" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G137" s="2"/>
@@ -7184,21 +7344,21 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F138" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G138" s="2"/>
@@ -7226,13 +7386,13 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>9</v>
@@ -7240,7 +7400,7 @@
       <c r="E139" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="3" t="b">
+      <c r="F139" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G139" s="2"/>
@@ -7268,13 +7428,13 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>9</v>
@@ -7282,7 +7442,7 @@
       <c r="E140" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F140" s="3" t="b">
+      <c r="F140" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G140" s="2"/>
@@ -7310,21 +7470,21 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F141" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G141" s="2"/>
@@ -7352,21 +7512,21 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F142" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G142" s="2"/>
@@ -7394,13 +7554,13 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>9</v>
@@ -7408,7 +7568,7 @@
       <c r="E143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F143" s="3" t="b">
+      <c r="F143" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G143" s="2"/>
@@ -7436,13 +7596,13 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>9</v>
@@ -7450,7 +7610,7 @@
       <c r="E144" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="3" t="b">
+      <c r="F144" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G144" s="2"/>
@@ -7478,13 +7638,13 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>9</v>
@@ -7492,7 +7652,7 @@
       <c r="E145" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F145" s="3" t="b">
+      <c r="F145" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G145" s="2"/>
@@ -7520,21 +7680,21 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F146" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G146" s="2"/>
@@ -7562,21 +7722,21 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F147" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G147" s="2"/>
@@ -7604,21 +7764,21 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F148" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G148" s="2"/>
@@ -7646,13 +7806,13 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>9</v>
@@ -7660,7 +7820,7 @@
       <c r="E149" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="3" t="b">
+      <c r="F149" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G149" s="2"/>
@@ -7688,13 +7848,13 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>9</v>
@@ -7702,7 +7862,7 @@
       <c r="E150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="3" t="b">
+      <c r="F150" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G150" s="2"/>
@@ -7730,13 +7890,13 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>9</v>
@@ -7744,7 +7904,7 @@
       <c r="E151" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F151" s="3" t="b">
+      <c r="F151" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G151" s="2"/>
@@ -7772,13 +7932,13 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>9</v>
@@ -7786,7 +7946,7 @@
       <c r="E152" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="3" t="b">
+      <c r="F152" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G152" s="2"/>
@@ -7814,13 +7974,13 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>9</v>
@@ -7828,7 +7988,7 @@
       <c r="E153" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F153" s="3" t="b">
+      <c r="F153" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G153" s="2"/>
@@ -7856,13 +8016,13 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>9</v>
@@ -7870,7 +8030,7 @@
       <c r="E154" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="3" t="b">
+      <c r="F154" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G154" s="2"/>
@@ -7898,21 +8058,21 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F155" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G155" s="2"/>
@@ -7940,21 +8100,21 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="3" t="b">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G156" s="2"/>
@@ -7982,21 +8142,21 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="3" t="b">
+        <v>13</v>
+      </c>
+      <c r="F157" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G157" s="2"/>
@@ -8024,13 +8184,13 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>9</v>
@@ -8038,7 +8198,7 @@
       <c r="E158" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F158" s="3" t="b">
+      <c r="F158" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G158" s="2"/>
@@ -8066,13 +8226,13 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>9</v>
@@ -8080,7 +8240,7 @@
       <c r="E159" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F159" s="3" t="b">
+      <c r="F159" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G159" s="2"/>
@@ -8108,13 +8268,13 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>9</v>
@@ -8122,7 +8282,7 @@
       <c r="E160" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="3" t="b">
+      <c r="F160" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G160" s="2"/>
@@ -8150,13 +8310,13 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>9</v>
@@ -8164,7 +8324,7 @@
       <c r="E161" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F161" s="3" t="b">
+      <c r="F161" s="4" t="b">
         <v>0</v>
       </c>
       <c r="G161" s="2"/>
@@ -8191,12 +8351,24 @@
       <c r="AB161" s="2"/>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
+      <c r="A162" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -8221,12 +8393,24 @@
       <c r="AB162" s="2"/>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="A163" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -8251,12 +8435,24 @@
       <c r="AB163" s="2"/>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
+      <c r="A164" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -8281,12 +8477,24 @@
       <c r="AB164" s="2"/>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="A165" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -8311,12 +8519,24 @@
       <c r="AB165" s="2"/>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+      <c r="A166" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -8341,12 +8561,24 @@
       <c r="AB166" s="2"/>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
+      <c r="A167" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -8371,12 +8603,24 @@
       <c r="AB167" s="2"/>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -8401,12 +8645,24 @@
       <c r="AB168" s="2"/>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -8431,12 +8687,24 @@
       <c r="AB169" s="2"/>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -8461,12 +8729,24 @@
       <c r="AB170" s="2"/>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -8491,12 +8771,24 @@
       <c r="AB171" s="2"/>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
+      <c r="A172" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -8521,12 +8813,24 @@
       <c r="AB172" s="2"/>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -8551,12 +8855,24 @@
       <c r="AB173" s="2"/>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -8581,12 +8897,24 @@
       <c r="AB174" s="2"/>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -8611,12 +8939,24 @@
       <c r="AB175" s="2"/>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -8641,12 +8981,24 @@
       <c r="AB176" s="2"/>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -8671,12 +9023,24 @@
       <c r="AB177" s="2"/>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="A178" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -8701,12 +9065,24 @@
       <c r="AB178" s="2"/>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
+      <c r="A179" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -8731,12 +9107,24 @@
       <c r="AB179" s="2"/>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
+      <c r="A180" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -8761,12 +9149,24 @@
       <c r="AB180" s="2"/>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="A181" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -8791,12 +9191,24 @@
       <c r="AB181" s="2"/>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
+      <c r="A182" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -8821,12 +9233,24 @@
       <c r="AB182" s="2"/>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
+      <c r="A183" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -8851,12 +9275,24 @@
       <c r="AB183" s="2"/>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
+      <c r="A184" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -8881,12 +9317,24 @@
       <c r="AB184" s="2"/>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
+      <c r="A185" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -33360,6 +33808,366 @@
       <c r="AA1000" s="2"/>
       <c r="AB1000" s="2"/>
     </row>
+    <row r="1001" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+      <c r="AB1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+      <c r="AB1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
+      <c r="AB1003" s="2"/>
+    </row>
+    <row r="1004" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+      <c r="AB1004" s="2"/>
+    </row>
+    <row r="1005" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
+      <c r="AB1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
+      <c r="AB1006" s="2"/>
+    </row>
+    <row r="1007" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+      <c r="AB1007" s="2"/>
+    </row>
+    <row r="1008" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
+      <c r="AB1008" s="2"/>
+    </row>
+    <row r="1009" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+      <c r="AA1009" s="2"/>
+      <c r="AB1009" s="2"/>
+    </row>
+    <row r="1010" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+      <c r="AA1010" s="2"/>
+      <c r="AB1010" s="2"/>
+    </row>
+    <row r="1011" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="2"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+      <c r="AA1011" s="2"/>
+      <c r="AB1011" s="2"/>
+    </row>
+    <row r="1012" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+      <c r="G1012" s="2"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+      <c r="AA1012" s="2"/>
+      <c r="AB1012" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
